--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.03367030671742514</v>
+        <v>0.4769321400286752</v>
       </c>
       <c r="C2">
-        <v>0.7503555537684983</v>
+        <v>0.9320513987497278</v>
       </c>
       <c r="D2">
-        <v>1.138414565598253</v>
+        <v>1.650466364378836</v>
       </c>
       <c r="E2">
-        <v>1.066965119204116</v>
+        <v>1.284704777129297</v>
       </c>
       <c r="F2">
-        <v>1.106690571187299</v>
+        <v>1.237927218396544</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1292260477596816</v>
+        <v>0.6221863334236316</v>
       </c>
       <c r="C3">
-        <v>0.6385788781778508</v>
+        <v>0.9661009109131644</v>
       </c>
       <c r="D3">
-        <v>0.7660138588039315</v>
+        <v>1.561161447007451</v>
       </c>
       <c r="E3">
-        <v>0.8752221768236517</v>
+        <v>1.249464464083493</v>
       </c>
       <c r="F3">
-        <v>0.9009757828782301</v>
+        <v>1.127777791928594</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.159210547990988</v>
+        <v>0.7378115908420845</v>
       </c>
       <c r="C4">
-        <v>0.6332480745293407</v>
+        <v>0.9692599323336366</v>
       </c>
       <c r="D4">
-        <v>0.6936320699772534</v>
+        <v>1.482360141223014</v>
       </c>
       <c r="E4">
-        <v>0.8328457660198876</v>
+        <v>1.217522131717947</v>
       </c>
       <c r="F4">
-        <v>0.8538367342673654</v>
+        <v>1.011566308962359</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1367074536338469</v>
+        <v>0.7806678668064955</v>
       </c>
       <c r="C5">
-        <v>0.7406712053686282</v>
+        <v>0.9619392551853039</v>
       </c>
       <c r="D5">
-        <v>1.139897642898592</v>
+        <v>2.031973731581155</v>
       </c>
       <c r="E5">
-        <v>1.067659891022694</v>
+        <v>1.425473160596563</v>
       </c>
       <c r="F5">
-        <v>1.110553729686905</v>
+        <v>1.250913488075273</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.08118802479340033</v>
+        <v>0.7978750242939276</v>
       </c>
       <c r="C6">
-        <v>0.6896923504086547</v>
+        <v>0.8777464132826209</v>
       </c>
       <c r="D6">
-        <v>0.8052141417939976</v>
+        <v>1.683130036913681</v>
       </c>
       <c r="E6">
-        <v>0.897337250867252</v>
+        <v>1.297355015758478</v>
       </c>
       <c r="F6">
-        <v>0.9419970785659723</v>
+        <v>1.078334869922473</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04563219065595053</v>
+        <v>0.8607107567659571</v>
       </c>
       <c r="C7">
-        <v>0.4399341750674574</v>
+        <v>0.8607107567659571</v>
       </c>
       <c r="D7">
-        <v>0.3002250864128611</v>
+        <v>1.054462929432981</v>
       </c>
       <c r="E7">
-        <v>0.5479279938211417</v>
+        <v>1.026870454065643</v>
       </c>
       <c r="F7">
-        <v>0.589773901186096</v>
+        <v>0.5940075024340167</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.6474218014509007</v>
+        <v>0.9660439600786086</v>
       </c>
       <c r="C8">
-        <v>0.6732052880016696</v>
+        <v>1.214125379206839</v>
       </c>
       <c r="D8">
-        <v>1.163746042481751</v>
+        <v>2.475674515919399</v>
       </c>
       <c r="E8">
-        <v>1.07877061624877</v>
+        <v>1.573427632882872</v>
       </c>
       <c r="F8">
-        <v>0.9963875106187832</v>
+        <v>1.360485317722336</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1.48847156608511</v>
+        <v>1.443592723702684</v>
       </c>
       <c r="C9">
-        <v>1.48847156608511</v>
+        <v>1.443592723702684</v>
       </c>
       <c r="D9">
-        <v>2.21554760304386</v>
+        <v>2.873932502829098</v>
       </c>
       <c r="E9">
-        <v>1.48847156608511</v>
+        <v>1.695267678813319</v>
+      </c>
+      <c r="F9">
+        <v>1.088558141007014</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.4350014876132097</v>
+      </c>
+      <c r="C10">
+        <v>0.4350014876132097</v>
+      </c>
+      <c r="D10">
+        <v>0.1892262942257054</v>
+      </c>
+      <c r="E10">
+        <v>0.4350014876132097</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.4769321400286752</v>
+        <v>0.4985553813290332</v>
       </c>
       <c r="C2">
-        <v>0.9320513987497278</v>
+        <v>2.131733426832194</v>
       </c>
       <c r="D2">
-        <v>1.650466364378836</v>
+        <v>17.05044517982819</v>
       </c>
       <c r="E2">
-        <v>1.284704777129297</v>
+        <v>4.129218470828128</v>
       </c>
       <c r="F2">
-        <v>1.237927218396544</v>
+        <v>4.139797756631062</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.6221863334236316</v>
+        <v>0.3670740509330708</v>
       </c>
       <c r="C3">
-        <v>0.9661009109131644</v>
+        <v>2.310008463032842</v>
       </c>
       <c r="D3">
-        <v>1.561161447007451</v>
+        <v>18.22424447820178</v>
       </c>
       <c r="E3">
-        <v>1.249464464083493</v>
+        <v>4.268986352543397</v>
       </c>
       <c r="F3">
-        <v>1.127777791928594</v>
+        <v>4.296355968907215</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.7378115908420845</v>
+        <v>0.6013248752497656</v>
       </c>
       <c r="C4">
-        <v>0.9692599323336366</v>
+        <v>2.260079145283003</v>
       </c>
       <c r="D4">
-        <v>1.482360141223014</v>
+        <v>17.85224903368007</v>
       </c>
       <c r="E4">
-        <v>1.217522131717947</v>
+        <v>4.225192188963725</v>
       </c>
       <c r="F4">
-        <v>1.011566308962359</v>
+        <v>4.225523177608233</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.7806678668064955</v>
+        <v>0.3757086490286848</v>
       </c>
       <c r="C5">
-        <v>0.9619392551853039</v>
+        <v>2.257680262786419</v>
       </c>
       <c r="D5">
-        <v>2.031973731581155</v>
+        <v>19.07933980741992</v>
       </c>
       <c r="E5">
-        <v>1.425473160596563</v>
+        <v>4.36799036256033</v>
       </c>
       <c r="F5">
-        <v>1.250913488075273</v>
+        <v>4.397854349388155</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.7978750242939276</v>
+        <v>0.6368657846289102</v>
       </c>
       <c r="C6">
-        <v>0.8777464132826209</v>
+        <v>2.180689379475908</v>
       </c>
       <c r="D6">
-        <v>1.683130036913681</v>
+        <v>18.26526036982974</v>
       </c>
       <c r="E6">
-        <v>1.297355015758478</v>
+        <v>4.27378759063079</v>
       </c>
       <c r="F6">
-        <v>1.078334869922473</v>
+        <v>4.271757936889329</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.8607107567659571</v>
+        <v>0.2352128511284962</v>
       </c>
       <c r="C7">
-        <v>0.8607107567659571</v>
+        <v>1.884428425708629</v>
       </c>
       <c r="D7">
-        <v>1.054462929432981</v>
+        <v>15.78161112617242</v>
       </c>
       <c r="E7">
-        <v>1.026870454065643</v>
+        <v>3.972607597809331</v>
       </c>
       <c r="F7">
-        <v>0.5940075024340167</v>
+        <v>4.009458699620951</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.9660439600786086</v>
+        <v>0.4131478667422561</v>
       </c>
       <c r="C8">
-        <v>1.214125379206839</v>
+        <v>1.866528751697462</v>
       </c>
       <c r="D8">
-        <v>2.475674515919399</v>
+        <v>15.52343479139494</v>
       </c>
       <c r="E8">
-        <v>1.573427632882872</v>
+        <v>3.939979034385201</v>
       </c>
       <c r="F8">
-        <v>1.360485317722336</v>
+        <v>3.9625332330756</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1.443592723702684</v>
+        <v>0.2445497104634806</v>
       </c>
       <c r="C9">
-        <v>1.443592723702684</v>
+        <v>1.984813716461438</v>
       </c>
       <c r="D9">
-        <v>2.873932502829098</v>
+        <v>16.20214174503358</v>
       </c>
       <c r="E9">
-        <v>1.695267678813319</v>
+        <v>4.02518841112234</v>
       </c>
       <c r="F9">
-        <v>1.088558141007014</v>
+        <v>4.064202304816381</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4350014876132097</v>
+        <v>0.4887008263018376</v>
       </c>
       <c r="C10">
-        <v>0.4350014876132097</v>
+        <v>1.804638728127334</v>
       </c>
       <c r="D10">
-        <v>0.1892262942257054</v>
+        <v>15.84511544644097</v>
       </c>
       <c r="E10">
-        <v>0.4350014876132097</v>
+        <v>3.980592348688945</v>
+      </c>
+      <c r="F10">
+        <v>3.997232193593323</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.2035882577814556</v>
+      </c>
+      <c r="C11">
+        <v>1.941069045450287</v>
+      </c>
+      <c r="D11">
+        <v>16.47627633247782</v>
+      </c>
+      <c r="E11">
+        <v>4.059097970298058</v>
+      </c>
+      <c r="F11">
+        <v>4.103130222273781</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.4985553813290332</v>
+        <v>0.4005110349344403</v>
       </c>
       <c r="C2">
-        <v>2.131733426832194</v>
+        <v>2.655140977822331</v>
       </c>
       <c r="D2">
-        <v>17.05044517982819</v>
+        <v>21.63180862528367</v>
       </c>
       <c r="E2">
-        <v>4.129218470828128</v>
+        <v>4.651000819746614</v>
       </c>
       <c r="F2">
-        <v>4.139797756631062</v>
+        <v>4.689892558235588</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3670740509330708</v>
+        <v>0.5668892295343088</v>
       </c>
       <c r="C3">
-        <v>2.310008463032842</v>
+        <v>2.479136195919392</v>
       </c>
       <c r="D3">
-        <v>18.22424447820178</v>
+        <v>21.0318797357638</v>
       </c>
       <c r="E3">
-        <v>4.268986352543397</v>
+        <v>4.586052740185595</v>
       </c>
       <c r="F3">
-        <v>4.296355968907215</v>
+        <v>4.60741567970938</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.6013248752497656</v>
+        <v>0.3205000134895055</v>
       </c>
       <c r="C4">
-        <v>2.260079145283003</v>
+        <v>2.637395790930121</v>
       </c>
       <c r="D4">
-        <v>17.85224903368007</v>
+        <v>22.34565928591471</v>
       </c>
       <c r="E4">
-        <v>4.225192188963725</v>
+        <v>4.727119554857346</v>
       </c>
       <c r="F4">
-        <v>4.225523177608233</v>
+        <v>4.776323983692677</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.3757086490286848</v>
+        <v>0.5762346695970005</v>
       </c>
       <c r="C5">
-        <v>2.257680262786419</v>
+        <v>2.589095673025974</v>
       </c>
       <c r="D5">
-        <v>19.07933980741992</v>
+        <v>22.01892221720106</v>
       </c>
       <c r="E5">
-        <v>4.36799036256033</v>
+        <v>4.692432441410431</v>
       </c>
       <c r="F5">
-        <v>4.397854349388155</v>
+        <v>4.717794302558035</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.6368657846289102</v>
+        <v>0.2753148666760855</v>
       </c>
       <c r="C6">
-        <v>2.180689379475908</v>
+        <v>2.600068871628832</v>
       </c>
       <c r="D6">
-        <v>18.26526036982974</v>
+        <v>23.53914279779983</v>
       </c>
       <c r="E6">
-        <v>4.27378759063079</v>
+        <v>4.851715448972645</v>
       </c>
       <c r="F6">
-        <v>4.271757936889329</v>
+        <v>4.908919327970988</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2352128511284962</v>
+        <v>0.5933497739086353</v>
       </c>
       <c r="C7">
-        <v>1.884428425708629</v>
+        <v>2.532836127095716</v>
       </c>
       <c r="D7">
-        <v>15.78161112617242</v>
+        <v>22.7469172165638</v>
       </c>
       <c r="E7">
-        <v>3.972607597809331</v>
+        <v>4.769372832623154</v>
       </c>
       <c r="F7">
-        <v>4.009458699620951</v>
+        <v>4.797596535730608</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4131478667422561</v>
+        <v>0.08217900475735471</v>
       </c>
       <c r="C8">
-        <v>1.866528751697462</v>
+        <v>2.189510016720857</v>
       </c>
       <c r="D8">
-        <v>15.52343479139494</v>
+        <v>19.90140921937524</v>
       </c>
       <c r="E8">
-        <v>3.939979034385201</v>
+        <v>4.461099552730833</v>
       </c>
       <c r="F8">
-        <v>3.9625332330756</v>
+        <v>4.52361299942514</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2445497104634806</v>
+        <v>0.3064881723285103</v>
       </c>
       <c r="C9">
-        <v>1.984813716461438</v>
+        <v>2.115380499113829</v>
       </c>
       <c r="D9">
-        <v>16.20214174503358</v>
+        <v>19.45264066361694</v>
       </c>
       <c r="E9">
-        <v>4.02518841112234</v>
+        <v>4.410514784423349</v>
       </c>
       <c r="F9">
-        <v>4.064202304816381</v>
+        <v>4.464087741054711</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.4887008263018376</v>
+        <v>0.08204119957200627</v>
       </c>
       <c r="C10">
-        <v>1.804638728127334</v>
+        <v>2.253188973636722</v>
       </c>
       <c r="D10">
-        <v>15.84511544644097</v>
+        <v>20.48504743802246</v>
       </c>
       <c r="E10">
-        <v>3.980592348688945</v>
+        <v>4.526041033621155</v>
       </c>
       <c r="F10">
-        <v>3.997232193593323</v>
+        <v>4.593350817267506</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2035882577814556</v>
+        <v>0.4071412824886091</v>
       </c>
       <c r="C11">
-        <v>1.941069045450287</v>
+        <v>2.043145068801755</v>
       </c>
       <c r="D11">
-        <v>16.47627633247782</v>
+        <v>20.02480196731898</v>
       </c>
       <c r="E11">
-        <v>4.059097970298058</v>
+        <v>4.474908040096352</v>
       </c>
       <c r="F11">
-        <v>4.103130222273781</v>
+        <v>4.525442837904833</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.4005110349344403</v>
+        <v>0.1887967460050058</v>
       </c>
       <c r="C2">
-        <v>2.655140977822331</v>
+        <v>2.743091716767341</v>
       </c>
       <c r="D2">
-        <v>21.63180862528367</v>
+        <v>23.88233659257806</v>
       </c>
       <c r="E2">
-        <v>4.651000819746614</v>
+        <v>4.886955759220464</v>
       </c>
       <c r="F2">
-        <v>4.689892558235588</v>
+        <v>4.931898846174919</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5668892295343088</v>
+        <v>0.352110747706186</v>
       </c>
       <c r="C3">
-        <v>2.479136195919392</v>
+        <v>2.607870699580363</v>
       </c>
       <c r="D3">
-        <v>21.0318797357638</v>
+        <v>22.56754235743245</v>
       </c>
       <c r="E3">
-        <v>4.586052740185595</v>
+        <v>4.750530744814989</v>
       </c>
       <c r="F3">
-        <v>4.60741567970938</v>
+        <v>4.785560805511427</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3205000134895055</v>
+        <v>0.2174705470141381</v>
       </c>
       <c r="C4">
-        <v>2.637395790930121</v>
+        <v>2.756943539436507</v>
       </c>
       <c r="D4">
-        <v>22.34565928591471</v>
+        <v>23.51947414538977</v>
       </c>
       <c r="E4">
-        <v>4.727119554857346</v>
+        <v>4.849688046193257</v>
       </c>
       <c r="F4">
-        <v>4.776323983692677</v>
+        <v>4.895016289175286</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.5762346695970005</v>
+        <v>0.4431031871169503</v>
       </c>
       <c r="C5">
-        <v>2.589095673025974</v>
+        <v>2.719424870216065</v>
       </c>
       <c r="D5">
-        <v>22.01892221720106</v>
+        <v>23.17433994440393</v>
       </c>
       <c r="E5">
-        <v>4.692432441410431</v>
+        <v>4.813973405037041</v>
       </c>
       <c r="F5">
-        <v>4.717794302558035</v>
+        <v>4.844263939605876</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2753148666760855</v>
+        <v>0.2052815252275707</v>
       </c>
       <c r="C6">
-        <v>2.600068871628832</v>
+        <v>2.707768026847837</v>
       </c>
       <c r="D6">
-        <v>23.53914279779983</v>
+        <v>24.13652786648203</v>
       </c>
       <c r="E6">
-        <v>4.851715448972645</v>
+        <v>4.912894041853745</v>
       </c>
       <c r="F6">
-        <v>4.908919327970988</v>
+        <v>4.961670927367957</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.5933497739086353</v>
+        <v>0.4590069508388199</v>
       </c>
       <c r="C7">
-        <v>2.532836127095716</v>
+        <v>2.706948687152313</v>
       </c>
       <c r="D7">
-        <v>22.7469172165638</v>
+        <v>24.1233625610406</v>
       </c>
       <c r="E7">
-        <v>4.769372832623154</v>
+        <v>4.911553986371381</v>
       </c>
       <c r="F7">
-        <v>4.797596535730608</v>
+        <v>4.944094250912167</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.08217900475735471</v>
+        <v>0.04636964274274196</v>
       </c>
       <c r="C8">
-        <v>2.189510016720857</v>
+        <v>2.422883991970613</v>
       </c>
       <c r="D8">
-        <v>19.90140921937524</v>
+        <v>21.4973978904842</v>
       </c>
       <c r="E8">
-        <v>4.461099552730833</v>
+        <v>4.636528646572153</v>
       </c>
       <c r="F8">
-        <v>4.52361299942514</v>
+        <v>4.688685967794817</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3064881723285103</v>
+        <v>0.2175654990191061</v>
       </c>
       <c r="C9">
-        <v>2.115380499113829</v>
+        <v>2.393845526388351</v>
       </c>
       <c r="D9">
-        <v>19.45264066361694</v>
+        <v>21.18684633999888</v>
       </c>
       <c r="E9">
-        <v>4.410514784423349</v>
+        <v>4.60291715545684</v>
       </c>
       <c r="F9">
-        <v>4.464087741054711</v>
+        <v>4.650927664705682</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08204119957200627</v>
+        <v>0.02747142410952863</v>
       </c>
       <c r="C10">
-        <v>2.253188973636722</v>
+        <v>2.403862371068361</v>
       </c>
       <c r="D10">
-        <v>20.48504743802246</v>
+        <v>21.54546590760865</v>
       </c>
       <c r="E10">
-        <v>4.526041033621155</v>
+        <v>4.641709373453777</v>
       </c>
       <c r="F10">
-        <v>4.593350817267506</v>
+        <v>4.696560501412658</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.4071412824886091</v>
+        <v>0.2558878751990361</v>
       </c>
       <c r="C11">
-        <v>2.043145068801755</v>
+        <v>2.356132134174123</v>
       </c>
       <c r="D11">
-        <v>20.02480196731898</v>
+        <v>21.26811481140563</v>
       </c>
       <c r="E11">
-        <v>4.474908040096352</v>
+        <v>4.611736637255605</v>
       </c>
       <c r="F11">
-        <v>4.525442837904833</v>
+        <v>4.660447797710927</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/EXPORT/Tables/naive_tbl/AVERAGE_10_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.4590069508388199</v>
+        <v>0.2384378511026075</v>
       </c>
       <c r="C7">
-        <v>2.706948687152313</v>
+        <v>2.626518026364868</v>
       </c>
       <c r="D7">
-        <v>24.1233625610406</v>
+        <v>24.30244504454661</v>
       </c>
       <c r="E7">
-        <v>4.911553986371381</v>
+        <v>4.929751012429188</v>
       </c>
       <c r="F7">
-        <v>4.944094250912167</v>
+        <v>4.990078027221052</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04636964274274196</v>
+        <v>0.3423512382350242</v>
       </c>
       <c r="C8">
-        <v>2.422883991970613</v>
+        <v>2.428316310422063</v>
       </c>
       <c r="D8">
-        <v>21.4973978904842</v>
+        <v>24.06023025796693</v>
       </c>
       <c r="E8">
-        <v>4.636528646572153</v>
+        <v>4.905122858600683</v>
       </c>
       <c r="F8">
-        <v>4.688685967794817</v>
+        <v>4.960656200552552</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2175654990191061</v>
+        <v>0.5109227334801674</v>
       </c>
       <c r="C9">
-        <v>2.393845526388351</v>
+        <v>3.592714756462251</v>
       </c>
       <c r="D9">
-        <v>21.18684633999888</v>
+        <v>42.77397683544757</v>
       </c>
       <c r="E9">
-        <v>4.60291715545684</v>
+        <v>6.540181712723857</v>
       </c>
       <c r="F9">
-        <v>4.650927664705682</v>
+        <v>6.689578288640727</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02747142410952863</v>
+        <v>-1.467550273398731</v>
       </c>
       <c r="C10">
-        <v>2.403862371068361</v>
+        <v>3.244036734525904</v>
       </c>
       <c r="D10">
-        <v>21.54546590760865</v>
+        <v>27.95265024820572</v>
       </c>
       <c r="E10">
-        <v>4.641709373453777</v>
+        <v>5.28702659802329</v>
       </c>
       <c r="F10">
-        <v>4.696560501412658</v>
+        <v>5.286668009895974</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2558878751990361</v>
+        <v>-0.8516085912070004</v>
       </c>
       <c r="C11">
-        <v>2.356132134174123</v>
+        <v>2.641658813510031</v>
       </c>
       <c r="D11">
-        <v>21.26811481140563</v>
+        <v>7.990727642251075</v>
       </c>
       <c r="E11">
-        <v>4.611736637255605</v>
+        <v>2.826787512752077</v>
       </c>
       <c r="F11">
-        <v>4.660447797710927</v>
+        <v>3.013612958234995</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
